--- a/Code/Results/Cases/Case_3_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.994807651753883</v>
+        <v>1.033187354849678</v>
       </c>
       <c r="D2">
-        <v>1.018592447047855</v>
+        <v>1.042153669889568</v>
       </c>
       <c r="E2">
-        <v>1.00176581685892</v>
+        <v>1.032510211636113</v>
       </c>
       <c r="F2">
-        <v>1.024828370397626</v>
+        <v>1.052534165196856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043194268574312</v>
+        <v>1.036090546296486</v>
       </c>
       <c r="J2">
-        <v>1.017144782005016</v>
+        <v>1.038313457740253</v>
       </c>
       <c r="K2">
-        <v>1.029798696598593</v>
+        <v>1.044931161085016</v>
       </c>
       <c r="L2">
-        <v>1.013200605744814</v>
+        <v>1.035315234379497</v>
       </c>
       <c r="M2">
-        <v>1.035952312711247</v>
+        <v>1.055282631970104</v>
       </c>
       <c r="N2">
-        <v>1.009140581887856</v>
+        <v>1.016657186976145</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000518224728842</v>
+        <v>1.034374012609437</v>
       </c>
       <c r="D3">
-        <v>1.022944769134756</v>
+        <v>1.043074659486301</v>
       </c>
       <c r="E3">
-        <v>1.006418882851674</v>
+        <v>1.033525806109813</v>
       </c>
       <c r="F3">
-        <v>1.029745819709979</v>
+        <v>1.053597133454186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044690258797063</v>
+        <v>1.036330149038658</v>
       </c>
       <c r="J3">
-        <v>1.020994772378061</v>
+        <v>1.039141521538604</v>
       </c>
       <c r="K3">
-        <v>1.033292249112634</v>
+        <v>1.045662635342709</v>
       </c>
       <c r="L3">
-        <v>1.016970286437659</v>
+        <v>1.036139062976453</v>
       </c>
       <c r="M3">
-        <v>1.040011734381877</v>
+        <v>1.056157823300814</v>
       </c>
       <c r="N3">
-        <v>1.010476237298753</v>
+        <v>1.016938930208505</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004125243276741</v>
+        <v>1.035141810305556</v>
       </c>
       <c r="D4">
-        <v>1.025696445641534</v>
+        <v>1.043670364051999</v>
       </c>
       <c r="E4">
-        <v>1.00936430874515</v>
+        <v>1.034183242216883</v>
       </c>
       <c r="F4">
-        <v>1.032857113562546</v>
+        <v>1.054285006378844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04562421349961</v>
+        <v>1.03648374834845</v>
       </c>
       <c r="J4">
-        <v>1.023424010342045</v>
+        <v>1.039676782418179</v>
       </c>
       <c r="K4">
-        <v>1.035494322094777</v>
+        <v>1.046135084700695</v>
       </c>
       <c r="L4">
-        <v>1.019351013490915</v>
+        <v>1.036671810007778</v>
       </c>
       <c r="M4">
-        <v>1.042574518028477</v>
+        <v>1.056723592954004</v>
       </c>
       <c r="N4">
-        <v>1.0113181740849</v>
+        <v>1.017120866469662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005621467122227</v>
+        <v>1.035464582118876</v>
       </c>
       <c r="D5">
-        <v>1.02683840049447</v>
+        <v>1.043920741694654</v>
       </c>
       <c r="E5">
-        <v>1.010587560098317</v>
+        <v>1.034459695536843</v>
       </c>
       <c r="F5">
-        <v>1.034148877062526</v>
+        <v>1.054574203223369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046008940088383</v>
+        <v>1.0365479768909</v>
       </c>
       <c r="J5">
-        <v>1.024431012899818</v>
+        <v>1.039901674596635</v>
       </c>
       <c r="K5">
-        <v>1.036406592061448</v>
+        <v>1.04633349605155</v>
       </c>
       <c r="L5">
-        <v>1.020338421789459</v>
+        <v>1.036895699516599</v>
       </c>
       <c r="M5">
-        <v>1.043637191410491</v>
+        <v>1.056961314137956</v>
       </c>
       <c r="N5">
-        <v>1.011666977656918</v>
+        <v>1.0171972638803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005871532934223</v>
+        <v>1.035518776362455</v>
       </c>
       <c r="D6">
-        <v>1.027029285915437</v>
+        <v>1.043962777893308</v>
       </c>
       <c r="E6">
-        <v>1.010792087772805</v>
+        <v>1.034506117219457</v>
       </c>
       <c r="F6">
-        <v>1.034364837536449</v>
+        <v>1.054622761540422</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046073080459756</v>
+        <v>1.036558740939493</v>
       </c>
       <c r="J6">
-        <v>1.024599273829707</v>
+        <v>1.039939427289442</v>
       </c>
       <c r="K6">
-        <v>1.036558990194848</v>
+        <v>1.046366798099277</v>
       </c>
       <c r="L6">
-        <v>1.020503438893069</v>
+        <v>1.036933287029397</v>
       </c>
       <c r="M6">
-        <v>1.043814772060891</v>
+        <v>1.057001221052431</v>
       </c>
       <c r="N6">
-        <v>1.011725247016657</v>
+        <v>1.017210086149229</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004145313952565</v>
+        <v>1.03514612323713</v>
       </c>
       <c r="D7">
-        <v>1.025711762070828</v>
+        <v>1.043673709832237</v>
       </c>
       <c r="E7">
-        <v>1.009380712012801</v>
+        <v>1.034186935935089</v>
       </c>
       <c r="F7">
-        <v>1.032874437046063</v>
+        <v>1.05428887058157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045629384995885</v>
+        <v>1.03648460792738</v>
       </c>
       <c r="J7">
-        <v>1.023437521200604</v>
+        <v>1.039679787954414</v>
       </c>
       <c r="K7">
-        <v>1.035506564197493</v>
+        <v>1.046137736693307</v>
       </c>
       <c r="L7">
-        <v>1.019364259422459</v>
+        <v>1.036674801933636</v>
       </c>
       <c r="M7">
-        <v>1.042588774616554</v>
+        <v>1.05672676990012</v>
       </c>
       <c r="N7">
-        <v>1.011322854785946</v>
+        <v>1.017121887643599</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9967563852683223</v>
+        <v>1.033588402457827</v>
       </c>
       <c r="D8">
-        <v>1.020077081330102</v>
+        <v>1.042464971919816</v>
       </c>
       <c r="E8">
-        <v>1.003352295401775</v>
+        <v>1.032853379158938</v>
       </c>
       <c r="F8">
-        <v>1.026505293385432</v>
+        <v>1.052893387810938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043707047722413</v>
+        <v>1.036171819295818</v>
       </c>
       <c r="J8">
-        <v>1.018459098118452</v>
+        <v>1.038593420386545</v>
       </c>
       <c r="K8">
-        <v>1.030991793547405</v>
+        <v>1.045178545213209</v>
       </c>
       <c r="L8">
-        <v>1.014487048389467</v>
+        <v>1.035593718739106</v>
       </c>
       <c r="M8">
-        <v>1.03733781484265</v>
+        <v>1.055578518508745</v>
       </c>
       <c r="N8">
-        <v>1.00959671738501</v>
+        <v>1.016752480181088</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9830165470551719</v>
+        <v>1.030843057435372</v>
       </c>
       <c r="D9">
-        <v>1.00962422383912</v>
+        <v>1.040333192083163</v>
       </c>
       <c r="E9">
-        <v>0.9921967608389404</v>
+        <v>1.03050559280833</v>
       </c>
       <c r="F9">
-        <v>1.014708181140636</v>
+        <v>1.050434821734592</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040047055406673</v>
+        <v>1.03560961668347</v>
       </c>
       <c r="J9">
-        <v>1.009183626339377</v>
+        <v>1.03667484877815</v>
       </c>
       <c r="K9">
-        <v>1.022563060984194</v>
+        <v>1.043481698923875</v>
       </c>
       <c r="L9">
-        <v>1.005417721708616</v>
+        <v>1.033686198842673</v>
       </c>
       <c r="M9">
-        <v>1.02756705188165</v>
+        <v>1.0535510192778</v>
       </c>
       <c r="N9">
-        <v>1.006374550464447</v>
+        <v>1.016098695436681</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9733045985509734</v>
+        <v>1.029012437001407</v>
       </c>
       <c r="D10">
-        <v>1.002259008887934</v>
+        <v>1.038910756076721</v>
       </c>
       <c r="E10">
-        <v>0.9843535668744566</v>
+        <v>1.028941787080602</v>
       </c>
       <c r="F10">
-        <v>1.006407658043523</v>
+        <v>1.048796054841862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037405868208205</v>
+        <v>1.035227394338901</v>
       </c>
       <c r="J10">
-        <v>1.002618920501682</v>
+        <v>1.035392900934258</v>
       </c>
       <c r="K10">
-        <v>1.016587595667991</v>
+        <v>1.042345986997178</v>
       </c>
       <c r="L10">
-        <v>0.9990111882313533</v>
+        <v>1.032412794827768</v>
       </c>
       <c r="M10">
-        <v>1.020662176053271</v>
+        <v>1.052196549079663</v>
       </c>
       <c r="N10">
-        <v>1.004090603023232</v>
+        <v>1.015660921204388</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9689512143959271</v>
+        <v>1.028219644033878</v>
       </c>
       <c r="D11">
-        <v>0.9989646611259575</v>
+        <v>1.038294523920311</v>
       </c>
       <c r="E11">
-        <v>0.980849092823365</v>
+        <v>1.028264961996579</v>
       </c>
       <c r="F11">
-        <v>1.002697669868152</v>
+        <v>1.048086509346878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036210020806859</v>
+        <v>1.035060126161848</v>
       </c>
       <c r="J11">
-        <v>0.9996752381083102</v>
+        <v>1.034837105719147</v>
       </c>
       <c r="K11">
-        <v>1.013906128869471</v>
+        <v>1.041853142084248</v>
       </c>
       <c r="L11">
-        <v>0.9961414354818726</v>
+        <v>1.031860979495899</v>
       </c>
       <c r="M11">
-        <v>1.017568890774879</v>
+        <v>1.051609377013835</v>
       </c>
       <c r="N11">
-        <v>1.003065800232153</v>
+        <v>1.015470903328261</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.967310316324857</v>
+        <v>1.027925145110434</v>
       </c>
       <c r="D12">
-        <v>0.9977241536423024</v>
+        <v>1.038065581021737</v>
       </c>
       <c r="E12">
-        <v>0.9795299753888289</v>
+        <v>1.028013605236704</v>
       </c>
       <c r="F12">
-        <v>1.001301048255371</v>
+        <v>1.04782295955339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0357575668667</v>
+        <v>1.034997730180629</v>
       </c>
       <c r="J12">
-        <v>0.9985656199781943</v>
+        <v>1.034630552022045</v>
       </c>
       <c r="K12">
-        <v>1.012895085549255</v>
+        <v>1.041669915519407</v>
       </c>
       <c r="L12">
-        <v>0.995060145029725</v>
+        <v>1.031655946345918</v>
       </c>
       <c r="M12">
-        <v>1.01640336461104</v>
+        <v>1.051391172709417</v>
       </c>
       <c r="N12">
-        <v>1.002679417808664</v>
+        <v>1.015400253098482</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9676634017446014</v>
+        <v>1.027988317079915</v>
       </c>
       <c r="D13">
-        <v>0.9979910265033709</v>
+        <v>1.03811469217932</v>
       </c>
       <c r="E13">
-        <v>0.9798137371402472</v>
+        <v>1.028067520037126</v>
       </c>
       <c r="F13">
-        <v>1.001601488434091</v>
+        <v>1.047879491573821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035855000873591</v>
+        <v>1.035011126331515</v>
       </c>
       <c r="J13">
-        <v>0.9988043873343901</v>
+        <v>1.034674863330549</v>
       </c>
       <c r="K13">
-        <v>1.01311265309015</v>
+        <v>1.04170922558162</v>
       </c>
       <c r="L13">
-        <v>0.9952927959206734</v>
+        <v>1.031699929578438</v>
       </c>
       <c r="M13">
-        <v>1.016654139612819</v>
+        <v>1.05143798292044</v>
       </c>
       <c r="N13">
-        <v>1.00276256303581</v>
+        <v>1.015415410944249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9688160738164249</v>
+        <v>1.028195301086732</v>
       </c>
       <c r="D14">
-        <v>0.9988624702750338</v>
+        <v>1.038275600387672</v>
       </c>
       <c r="E14">
-        <v>0.9807404159899723</v>
+        <v>1.028244183830499</v>
       </c>
       <c r="F14">
-        <v>1.002582610576068</v>
+        <v>1.04806472410022</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0361727919566</v>
+        <v>1.035054973900389</v>
       </c>
       <c r="J14">
-        <v>0.9995838534508651</v>
+        <v>1.034820034106307</v>
       </c>
       <c r="K14">
-        <v>1.01382286774143</v>
+        <v>1.04183799982812</v>
       </c>
       <c r="L14">
-        <v>0.996052374409342</v>
+        <v>1.031844032709544</v>
       </c>
       <c r="M14">
-        <v>1.017472891600825</v>
+        <v>1.051591342271871</v>
       </c>
       <c r="N14">
-        <v>1.003033980611155</v>
+        <v>1.015465064769674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9695230608868324</v>
+        <v>1.028322828014185</v>
       </c>
       <c r="D15">
-        <v>0.9993971313494958</v>
+        <v>1.038374735021954</v>
       </c>
       <c r="E15">
-        <v>0.9813090323613676</v>
+        <v>1.028353038322889</v>
       </c>
       <c r="F15">
-        <v>1.003184615303095</v>
+        <v>1.048178852878487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036367485361428</v>
+        <v>1.035081954695941</v>
       </c>
       <c r="J15">
-        <v>1.000061929316358</v>
+        <v>1.034909464457855</v>
       </c>
       <c r="K15">
-        <v>1.014258434962651</v>
+        <v>1.041917320403007</v>
       </c>
       <c r="L15">
-        <v>0.9965183132958259</v>
+        <v>1.031932810851013</v>
       </c>
       <c r="M15">
-        <v>1.017975128160166</v>
+        <v>1.051685818433552</v>
       </c>
       <c r="N15">
-        <v>1.003200440591976</v>
+        <v>1.015495648963627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9735902647280619</v>
+        <v>1.029065049317717</v>
       </c>
       <c r="D16">
-        <v>1.002475341548862</v>
+        <v>1.038951646838311</v>
       </c>
       <c r="E16">
-        <v>0.9845837713031194</v>
+        <v>1.028986712258564</v>
       </c>
       <c r="F16">
-        <v>1.006651340472105</v>
+        <v>1.048843146060415</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037484097868427</v>
+        <v>1.035238458207077</v>
       </c>
       <c r="J16">
-        <v>1.002812068286051</v>
+        <v>1.035429772333607</v>
       </c>
       <c r="K16">
-        <v>1.016763499510316</v>
+        <v>1.042378672805083</v>
       </c>
       <c r="L16">
-        <v>0.9991995482849936</v>
+        <v>1.032449408012421</v>
       </c>
       <c r="M16">
-        <v>1.020865204487495</v>
+        <v>1.052235503424459</v>
       </c>
       <c r="N16">
-        <v>1.004157832354734</v>
+        <v>1.015673522382005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9761007846008866</v>
+        <v>1.029530591029007</v>
       </c>
       <c r="D17">
-        <v>1.004377360884307</v>
+        <v>1.039313445525112</v>
       </c>
       <c r="E17">
-        <v>0.9866081648266701</v>
+        <v>1.029384282422311</v>
       </c>
       <c r="F17">
-        <v>1.008794128272064</v>
+        <v>1.049259852870362</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038170259494317</v>
+        <v>1.035336156473821</v>
       </c>
       <c r="J17">
-        <v>1.004509399463078</v>
+        <v>1.035755958752392</v>
       </c>
       <c r="K17">
-        <v>1.018309071967888</v>
+        <v>1.042667778945483</v>
       </c>
       <c r="L17">
-        <v>1.000855147738958</v>
+        <v>1.032773341941658</v>
       </c>
       <c r="M17">
-        <v>1.022649701731293</v>
+        <v>1.052580124434974</v>
       </c>
       <c r="N17">
-        <v>1.00474855298501</v>
+        <v>1.01578497471222</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9775509608783113</v>
+        <v>1.029802121969525</v>
       </c>
       <c r="D18">
-        <v>1.005476705131634</v>
+        <v>1.03952444690078</v>
       </c>
       <c r="E18">
-        <v>0.98777858932873</v>
+        <v>1.029616208639474</v>
       </c>
       <c r="F18">
-        <v>1.010032890687932</v>
+        <v>1.049502915909051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038565480205472</v>
+        <v>1.035392972093103</v>
       </c>
       <c r="J18">
-        <v>1.00548974029009</v>
+        <v>1.035946149972919</v>
       </c>
       <c r="K18">
-        <v>1.019201568433946</v>
+        <v>1.042836306068735</v>
       </c>
       <c r="L18">
-        <v>1.00181166842815</v>
+        <v>1.03296224636457</v>
       </c>
       <c r="M18">
-        <v>1.023680661808227</v>
+        <v>1.052781070712591</v>
       </c>
       <c r="N18">
-        <v>1.00508967704354</v>
+        <v>1.015849938722708</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9780430770614196</v>
+        <v>1.029894705084268</v>
       </c>
       <c r="D19">
-        <v>1.005849874918289</v>
+        <v>1.039596387900553</v>
       </c>
       <c r="E19">
-        <v>0.9881759474597874</v>
+        <v>1.02969529464502</v>
       </c>
       <c r="F19">
-        <v>1.010453429486583</v>
+        <v>1.049585794995097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038699403366097</v>
+        <v>1.035412315900797</v>
       </c>
       <c r="J19">
-        <v>1.005822397860532</v>
+        <v>1.036010988792777</v>
       </c>
       <c r="K19">
-        <v>1.019504384377904</v>
+        <v>1.042893751910206</v>
       </c>
       <c r="L19">
-        <v>1.002136290937345</v>
+        <v>1.033026651002677</v>
       </c>
       <c r="M19">
-        <v>1.024030541172797</v>
+        <v>1.052849577139843</v>
       </c>
       <c r="N19">
-        <v>1.005205419031692</v>
+        <v>1.015872082272544</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9758329061761163</v>
+        <v>1.029480644029449</v>
       </c>
       <c r="D20">
-        <v>1.00417434117214</v>
+        <v>1.039274631023628</v>
       </c>
       <c r="E20">
-        <v>0.9863920469903089</v>
+        <v>1.029341623781462</v>
       </c>
       <c r="F20">
-        <v>1.008565382564534</v>
+        <v>1.049215143660515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038097161536929</v>
+        <v>1.035325691972828</v>
       </c>
       <c r="J20">
-        <v>1.004328300537182</v>
+        <v>1.035720969056014</v>
       </c>
       <c r="K20">
-        <v>1.01814418482057</v>
+        <v>1.0426367713127</v>
       </c>
       <c r="L20">
-        <v>1.000678471971921</v>
+        <v>1.0327385911182</v>
       </c>
       <c r="M20">
-        <v>1.022459273754274</v>
+        <v>1.052543156623736</v>
       </c>
       <c r="N20">
-        <v>1.004685531736643</v>
+        <v>1.0157730215102</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.968477312942651</v>
+        <v>1.028134350032169</v>
       </c>
       <c r="D21">
-        <v>0.9986063255045925</v>
+        <v>1.038228218228379</v>
       </c>
       <c r="E21">
-        <v>0.9804680220431554</v>
+        <v>1.028192159477586</v>
       </c>
       <c r="F21">
-        <v>1.002294217005225</v>
+        <v>1.048010177550706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036079442077044</v>
+        <v>1.035042069204834</v>
       </c>
       <c r="J21">
-        <v>0.9993547759910006</v>
+        <v>1.03477728788157</v>
       </c>
       <c r="K21">
-        <v>1.013614149668583</v>
+        <v>1.041800083499852</v>
       </c>
       <c r="L21">
-        <v>0.9958291290050644</v>
+        <v>1.031801599712502</v>
       </c>
       <c r="M21">
-        <v>1.017232254710459</v>
+        <v>1.051546184598871</v>
       </c>
       <c r="N21">
-        <v>1.002954215833317</v>
+        <v>1.015450444865687</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9637136125056701</v>
+        <v>1.027287763051361</v>
       </c>
       <c r="D22">
-        <v>0.9950074752631054</v>
+        <v>1.03757002569821</v>
       </c>
       <c r="E22">
-        <v>0.9766420477707913</v>
+        <v>1.027469712602504</v>
       </c>
       <c r="F22">
-        <v>0.9982432065171467</v>
+        <v>1.047252607647445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034762777265427</v>
+        <v>1.034862210236106</v>
       </c>
       <c r="J22">
-        <v>0.9961334044563824</v>
+        <v>1.034183340808354</v>
       </c>
       <c r="K22">
-        <v>1.010678488103401</v>
+        <v>1.041273086945352</v>
       </c>
       <c r="L22">
-        <v>0.9926908794756503</v>
+        <v>1.031212103217743</v>
       </c>
       <c r="M22">
-        <v>1.013849546349856</v>
+        <v>1.050918755611266</v>
       </c>
       <c r="N22">
-        <v>1.001832353093908</v>
+        <v>1.01524722805662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662526913443412</v>
+        <v>1.027736566713448</v>
       </c>
       <c r="D23">
-        <v>0.9969249576621115</v>
+        <v>1.037918971916182</v>
       </c>
       <c r="E23">
-        <v>0.9786802752247001</v>
+        <v>1.027852670334072</v>
       </c>
       <c r="F23">
-        <v>1.00040138688195</v>
+        <v>1.04765420622723</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035465471188719</v>
+        <v>1.034957702359889</v>
       </c>
       <c r="J23">
-        <v>0.9978504175573495</v>
+        <v>1.034498262213479</v>
       </c>
       <c r="K23">
-        <v>1.012243348555369</v>
+        <v>1.041552546889699</v>
       </c>
       <c r="L23">
-        <v>0.9943633319720335</v>
+        <v>1.031524642074757</v>
       </c>
       <c r="M23">
-        <v>1.015652269174161</v>
+        <v>1.051251424031141</v>
       </c>
       <c r="N23">
-        <v>1.002430353904179</v>
+        <v>1.015354995124267</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9759539925680489</v>
+        <v>1.029503212964111</v>
       </c>
       <c r="D24">
-        <v>1.004266108088416</v>
+        <v>1.03929216971754</v>
       </c>
       <c r="E24">
-        <v>0.9864897333013894</v>
+        <v>1.029360899291223</v>
       </c>
       <c r="F24">
-        <v>1.008668777087327</v>
+        <v>1.049235345812195</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038130206795572</v>
+        <v>1.035330420955942</v>
       </c>
       <c r="J24">
-        <v>1.004410161197543</v>
+        <v>1.035736779602866</v>
       </c>
       <c r="K24">
-        <v>1.018218718001808</v>
+        <v>1.042650782647088</v>
       </c>
       <c r="L24">
-        <v>1.00075833239002</v>
+        <v>1.032754293645137</v>
       </c>
       <c r="M24">
-        <v>1.02254535050184</v>
+        <v>1.052559860987951</v>
       </c>
       <c r="N24">
-        <v>1.004714018910852</v>
+        <v>1.015778422784303</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9866605731295666</v>
+        <v>1.031552856904883</v>
       </c>
       <c r="D25">
-        <v>1.012392970787834</v>
+        <v>1.040884527040907</v>
       </c>
       <c r="E25">
-        <v>0.9951485653579284</v>
+        <v>1.031112305191769</v>
       </c>
       <c r="F25">
-        <v>1.017830919650728</v>
+        <v>1.051070369129622</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041027308899655</v>
+        <v>1.035756267076748</v>
       </c>
       <c r="J25">
-        <v>1.011645355318982</v>
+        <v>1.03717135371039</v>
       </c>
       <c r="K25">
-        <v>1.024801900499109</v>
+        <v>1.043921162371347</v>
       </c>
       <c r="L25">
-        <v>1.007822663363985</v>
+        <v>1.034179639811785</v>
       </c>
       <c r="M25">
-        <v>1.030158598783091</v>
+        <v>1.054075668824697</v>
       </c>
       <c r="N25">
-        <v>1.007230365055254</v>
+        <v>1.016268051943777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033187354849678</v>
+        <v>0.9948076517538823</v>
       </c>
       <c r="D2">
-        <v>1.042153669889568</v>
+        <v>1.018592447047854</v>
       </c>
       <c r="E2">
-        <v>1.032510211636113</v>
+        <v>1.00176581685892</v>
       </c>
       <c r="F2">
-        <v>1.052534165196856</v>
+        <v>1.024828370397626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036090546296486</v>
+        <v>1.043194268574312</v>
       </c>
       <c r="J2">
-        <v>1.038313457740253</v>
+        <v>1.017144782005015</v>
       </c>
       <c r="K2">
-        <v>1.044931161085016</v>
+        <v>1.029798696598593</v>
       </c>
       <c r="L2">
-        <v>1.035315234379497</v>
+        <v>1.013200605744813</v>
       </c>
       <c r="M2">
-        <v>1.055282631970104</v>
+        <v>1.035952312711246</v>
       </c>
       <c r="N2">
-        <v>1.016657186976145</v>
+        <v>1.009140581887856</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034374012609437</v>
+        <v>1.000518224728842</v>
       </c>
       <c r="D3">
-        <v>1.043074659486301</v>
+        <v>1.022944769134756</v>
       </c>
       <c r="E3">
-        <v>1.033525806109813</v>
+        <v>1.006418882851674</v>
       </c>
       <c r="F3">
-        <v>1.053597133454186</v>
+        <v>1.029745819709979</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036330149038658</v>
+        <v>1.044690258797063</v>
       </c>
       <c r="J3">
-        <v>1.039141521538604</v>
+        <v>1.020994772378061</v>
       </c>
       <c r="K3">
-        <v>1.045662635342709</v>
+        <v>1.033292249112634</v>
       </c>
       <c r="L3">
-        <v>1.036139062976453</v>
+        <v>1.016970286437659</v>
       </c>
       <c r="M3">
-        <v>1.056157823300814</v>
+        <v>1.040011734381877</v>
       </c>
       <c r="N3">
-        <v>1.016938930208505</v>
+        <v>1.010476237298753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035141810305556</v>
+        <v>1.004125243276742</v>
       </c>
       <c r="D4">
-        <v>1.043670364051999</v>
+        <v>1.025696445641535</v>
       </c>
       <c r="E4">
-        <v>1.034183242216883</v>
+        <v>1.009364308745151</v>
       </c>
       <c r="F4">
-        <v>1.054285006378844</v>
+        <v>1.032857113562547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03648374834845</v>
+        <v>1.04562421349961</v>
       </c>
       <c r="J4">
-        <v>1.039676782418179</v>
+        <v>1.023424010342046</v>
       </c>
       <c r="K4">
-        <v>1.046135084700695</v>
+        <v>1.035494322094777</v>
       </c>
       <c r="L4">
-        <v>1.036671810007778</v>
+        <v>1.019351013490915</v>
       </c>
       <c r="M4">
-        <v>1.056723592954004</v>
+        <v>1.042574518028478</v>
       </c>
       <c r="N4">
-        <v>1.017120866469662</v>
+        <v>1.0113181740849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035464582118876</v>
+        <v>1.005621467122226</v>
       </c>
       <c r="D5">
-        <v>1.043920741694654</v>
+        <v>1.02683840049447</v>
       </c>
       <c r="E5">
-        <v>1.034459695536843</v>
+        <v>1.010587560098317</v>
       </c>
       <c r="F5">
-        <v>1.054574203223369</v>
+        <v>1.034148877062526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0365479768909</v>
+        <v>1.046008940088383</v>
       </c>
       <c r="J5">
-        <v>1.039901674596635</v>
+        <v>1.024431012899817</v>
       </c>
       <c r="K5">
-        <v>1.04633349605155</v>
+        <v>1.036406592061448</v>
       </c>
       <c r="L5">
-        <v>1.036895699516599</v>
+        <v>1.020338421789458</v>
       </c>
       <c r="M5">
-        <v>1.056961314137956</v>
+        <v>1.043637191410491</v>
       </c>
       <c r="N5">
-        <v>1.0171972638803</v>
+        <v>1.011666977656918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035518776362455</v>
+        <v>1.005871532934224</v>
       </c>
       <c r="D6">
-        <v>1.043962777893308</v>
+        <v>1.027029285915438</v>
       </c>
       <c r="E6">
-        <v>1.034506117219457</v>
+        <v>1.010792087772806</v>
       </c>
       <c r="F6">
-        <v>1.054622761540422</v>
+        <v>1.03436483753645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036558740939493</v>
+        <v>1.046073080459757</v>
       </c>
       <c r="J6">
-        <v>1.039939427289442</v>
+        <v>1.024599273829708</v>
       </c>
       <c r="K6">
-        <v>1.046366798099277</v>
+        <v>1.036558990194849</v>
       </c>
       <c r="L6">
-        <v>1.036933287029397</v>
+        <v>1.02050343889307</v>
       </c>
       <c r="M6">
-        <v>1.057001221052431</v>
+        <v>1.043814772060892</v>
       </c>
       <c r="N6">
-        <v>1.017210086149229</v>
+        <v>1.011725247016658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03514612323713</v>
+        <v>1.004145313952566</v>
       </c>
       <c r="D7">
-        <v>1.043673709832237</v>
+        <v>1.025711762070829</v>
       </c>
       <c r="E7">
-        <v>1.034186935935089</v>
+        <v>1.009380712012801</v>
       </c>
       <c r="F7">
-        <v>1.05428887058157</v>
+        <v>1.032874437046064</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03648460792738</v>
+        <v>1.045629384995885</v>
       </c>
       <c r="J7">
-        <v>1.039679787954414</v>
+        <v>1.023437521200604</v>
       </c>
       <c r="K7">
-        <v>1.046137736693307</v>
+        <v>1.035506564197493</v>
       </c>
       <c r="L7">
-        <v>1.036674801933636</v>
+        <v>1.019364259422459</v>
       </c>
       <c r="M7">
-        <v>1.05672676990012</v>
+        <v>1.042588774616554</v>
       </c>
       <c r="N7">
-        <v>1.017121887643599</v>
+        <v>1.011322854785946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033588402457827</v>
+        <v>0.9967563852683219</v>
       </c>
       <c r="D8">
-        <v>1.042464971919816</v>
+        <v>1.020077081330101</v>
       </c>
       <c r="E8">
-        <v>1.032853379158938</v>
+        <v>1.003352295401774</v>
       </c>
       <c r="F8">
-        <v>1.052893387810938</v>
+        <v>1.026505293385431</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036171819295818</v>
+        <v>1.043707047722412</v>
       </c>
       <c r="J8">
-        <v>1.038593420386545</v>
+        <v>1.018459098118451</v>
       </c>
       <c r="K8">
-        <v>1.045178545213209</v>
+        <v>1.030991793547404</v>
       </c>
       <c r="L8">
-        <v>1.035593718739106</v>
+        <v>1.014487048389466</v>
       </c>
       <c r="M8">
-        <v>1.055578518508745</v>
+        <v>1.037337814842649</v>
       </c>
       <c r="N8">
-        <v>1.016752480181088</v>
+        <v>1.00959671738501</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030843057435372</v>
+        <v>0.9830165470551719</v>
       </c>
       <c r="D9">
-        <v>1.040333192083163</v>
+        <v>1.00962422383912</v>
       </c>
       <c r="E9">
-        <v>1.03050559280833</v>
+        <v>0.9921967608389403</v>
       </c>
       <c r="F9">
-        <v>1.050434821734592</v>
+        <v>1.014708181140635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03560961668347</v>
+        <v>1.040047055406673</v>
       </c>
       <c r="J9">
-        <v>1.03667484877815</v>
+        <v>1.009183626339377</v>
       </c>
       <c r="K9">
-        <v>1.043481698923875</v>
+        <v>1.022563060984194</v>
       </c>
       <c r="L9">
-        <v>1.033686198842673</v>
+        <v>1.005417721708615</v>
       </c>
       <c r="M9">
-        <v>1.0535510192778</v>
+        <v>1.027567051881649</v>
       </c>
       <c r="N9">
-        <v>1.016098695436681</v>
+        <v>1.006374550464447</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029012437001407</v>
+        <v>0.9733045985509726</v>
       </c>
       <c r="D10">
-        <v>1.038910756076721</v>
+        <v>1.002259008887933</v>
       </c>
       <c r="E10">
-        <v>1.028941787080602</v>
+        <v>0.9843535668744557</v>
       </c>
       <c r="F10">
-        <v>1.048796054841862</v>
+        <v>1.006407658043522</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035227394338901</v>
+        <v>1.037405868208205</v>
       </c>
       <c r="J10">
-        <v>1.035392900934258</v>
+        <v>1.002618920501681</v>
       </c>
       <c r="K10">
-        <v>1.042345986997178</v>
+        <v>1.01658759566799</v>
       </c>
       <c r="L10">
-        <v>1.032412794827768</v>
+        <v>0.9990111882313526</v>
       </c>
       <c r="M10">
-        <v>1.052196549079663</v>
+        <v>1.020662176053271</v>
       </c>
       <c r="N10">
-        <v>1.015660921204388</v>
+        <v>1.004090603023232</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028219644033878</v>
+        <v>0.9689512143959266</v>
       </c>
       <c r="D11">
-        <v>1.038294523920311</v>
+        <v>0.9989646611259563</v>
       </c>
       <c r="E11">
-        <v>1.028264961996579</v>
+        <v>0.9808490928233643</v>
       </c>
       <c r="F11">
-        <v>1.048086509346878</v>
+        <v>1.002697669868151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035060126161848</v>
+        <v>1.036210020806859</v>
       </c>
       <c r="J11">
-        <v>1.034837105719147</v>
+        <v>0.9996752381083095</v>
       </c>
       <c r="K11">
-        <v>1.041853142084248</v>
+        <v>1.01390612886947</v>
       </c>
       <c r="L11">
-        <v>1.031860979495899</v>
+        <v>0.9961414354818718</v>
       </c>
       <c r="M11">
-        <v>1.051609377013835</v>
+        <v>1.017568890774877</v>
       </c>
       <c r="N11">
-        <v>1.015470903328261</v>
+        <v>1.003065800232153</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027925145110434</v>
+        <v>0.9673103163248576</v>
       </c>
       <c r="D12">
-        <v>1.038065581021737</v>
+        <v>0.9977241536423028</v>
       </c>
       <c r="E12">
-        <v>1.028013605236704</v>
+        <v>0.9795299753888291</v>
       </c>
       <c r="F12">
-        <v>1.04782295955339</v>
+        <v>1.001301048255372</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034997730180629</v>
+        <v>1.0357575668667</v>
       </c>
       <c r="J12">
-        <v>1.034630552022045</v>
+        <v>0.9985656199781945</v>
       </c>
       <c r="K12">
-        <v>1.041669915519407</v>
+        <v>1.012895085549255</v>
       </c>
       <c r="L12">
-        <v>1.031655946345918</v>
+        <v>0.9950601450297252</v>
       </c>
       <c r="M12">
-        <v>1.051391172709417</v>
+        <v>1.016403364611041</v>
       </c>
       <c r="N12">
-        <v>1.015400253098482</v>
+        <v>1.002679417808664</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027988317079915</v>
+        <v>0.9676634017446011</v>
       </c>
       <c r="D13">
-        <v>1.03811469217932</v>
+        <v>0.9979910265033707</v>
       </c>
       <c r="E13">
-        <v>1.028067520037126</v>
+        <v>0.9798137371402471</v>
       </c>
       <c r="F13">
-        <v>1.047879491573821</v>
+        <v>1.001601488434091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035011126331515</v>
+        <v>1.035855000873591</v>
       </c>
       <c r="J13">
-        <v>1.034674863330549</v>
+        <v>0.9988043873343899</v>
       </c>
       <c r="K13">
-        <v>1.04170922558162</v>
+        <v>1.01311265309015</v>
       </c>
       <c r="L13">
-        <v>1.031699929578438</v>
+        <v>0.9952927959206731</v>
       </c>
       <c r="M13">
-        <v>1.05143798292044</v>
+        <v>1.016654139612819</v>
       </c>
       <c r="N13">
-        <v>1.015415410944249</v>
+        <v>1.00276256303581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028195301086732</v>
+        <v>0.9688160738164242</v>
       </c>
       <c r="D14">
-        <v>1.038275600387672</v>
+        <v>0.9988624702750334</v>
       </c>
       <c r="E14">
-        <v>1.028244183830499</v>
+        <v>0.9807404159899717</v>
       </c>
       <c r="F14">
-        <v>1.04806472410022</v>
+        <v>1.002582610576068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035054973900389</v>
+        <v>1.0361727919566</v>
       </c>
       <c r="J14">
-        <v>1.034820034106307</v>
+        <v>0.9995838534508645</v>
       </c>
       <c r="K14">
-        <v>1.04183799982812</v>
+        <v>1.013822867741429</v>
       </c>
       <c r="L14">
-        <v>1.031844032709544</v>
+        <v>0.9960523744093414</v>
       </c>
       <c r="M14">
-        <v>1.051591342271871</v>
+        <v>1.017472891600824</v>
       </c>
       <c r="N14">
-        <v>1.015465064769674</v>
+        <v>1.003033980611155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028322828014185</v>
+        <v>0.9695230608868309</v>
       </c>
       <c r="D15">
-        <v>1.038374735021954</v>
+        <v>0.9993971313494946</v>
       </c>
       <c r="E15">
-        <v>1.028353038322889</v>
+        <v>0.9813090323613664</v>
       </c>
       <c r="F15">
-        <v>1.048178852878487</v>
+        <v>1.003184615303093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035081954695941</v>
+        <v>1.036367485361427</v>
       </c>
       <c r="J15">
-        <v>1.034909464457855</v>
+        <v>1.000061929316357</v>
       </c>
       <c r="K15">
-        <v>1.041917320403007</v>
+        <v>1.01425843496265</v>
       </c>
       <c r="L15">
-        <v>1.031932810851013</v>
+        <v>0.9965183132958247</v>
       </c>
       <c r="M15">
-        <v>1.051685818433552</v>
+        <v>1.017975128160165</v>
       </c>
       <c r="N15">
-        <v>1.015495648963627</v>
+        <v>1.003200440591976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029065049317717</v>
+        <v>0.9735902647280613</v>
       </c>
       <c r="D16">
-        <v>1.038951646838311</v>
+        <v>1.002475341548862</v>
       </c>
       <c r="E16">
-        <v>1.028986712258564</v>
+        <v>0.9845837713031187</v>
       </c>
       <c r="F16">
-        <v>1.048843146060415</v>
+        <v>1.006651340472105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035238458207077</v>
+        <v>1.037484097868427</v>
       </c>
       <c r="J16">
-        <v>1.035429772333607</v>
+        <v>1.002812068286051</v>
       </c>
       <c r="K16">
-        <v>1.042378672805083</v>
+        <v>1.016763499510315</v>
       </c>
       <c r="L16">
-        <v>1.032449408012421</v>
+        <v>0.9991995482849929</v>
       </c>
       <c r="M16">
-        <v>1.052235503424459</v>
+        <v>1.020865204487495</v>
       </c>
       <c r="N16">
-        <v>1.015673522382005</v>
+        <v>1.004157832354734</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029530591029007</v>
+        <v>0.976100784600885</v>
       </c>
       <c r="D17">
-        <v>1.039313445525112</v>
+        <v>1.004377360884305</v>
       </c>
       <c r="E17">
-        <v>1.029384282422311</v>
+        <v>0.9866081648266688</v>
       </c>
       <c r="F17">
-        <v>1.049259852870362</v>
+        <v>1.008794128272063</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035336156473821</v>
+        <v>1.038170259494317</v>
       </c>
       <c r="J17">
-        <v>1.035755958752392</v>
+        <v>1.004509399463076</v>
       </c>
       <c r="K17">
-        <v>1.042667778945483</v>
+        <v>1.018309071967887</v>
       </c>
       <c r="L17">
-        <v>1.032773341941658</v>
+        <v>1.000855147738957</v>
       </c>
       <c r="M17">
-        <v>1.052580124434974</v>
+        <v>1.022649701731291</v>
       </c>
       <c r="N17">
-        <v>1.01578497471222</v>
+        <v>1.00474855298501</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029802121969525</v>
+        <v>0.9775509608783114</v>
       </c>
       <c r="D18">
-        <v>1.03952444690078</v>
+        <v>1.005476705131634</v>
       </c>
       <c r="E18">
-        <v>1.029616208639474</v>
+        <v>0.9877785893287298</v>
       </c>
       <c r="F18">
-        <v>1.049502915909051</v>
+        <v>1.010032890687932</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035392972093103</v>
+        <v>1.038565480205472</v>
       </c>
       <c r="J18">
-        <v>1.035946149972919</v>
+        <v>1.00548974029009</v>
       </c>
       <c r="K18">
-        <v>1.042836306068735</v>
+        <v>1.019201568433946</v>
       </c>
       <c r="L18">
-        <v>1.03296224636457</v>
+        <v>1.001811668428149</v>
       </c>
       <c r="M18">
-        <v>1.052781070712591</v>
+        <v>1.023680661808227</v>
       </c>
       <c r="N18">
-        <v>1.015849938722708</v>
+        <v>1.00508967704354</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029894705084268</v>
+        <v>0.9780430770614195</v>
       </c>
       <c r="D19">
-        <v>1.039596387900553</v>
+        <v>1.005849874918288</v>
       </c>
       <c r="E19">
-        <v>1.02969529464502</v>
+        <v>0.9881759474597871</v>
       </c>
       <c r="F19">
-        <v>1.049585794995097</v>
+        <v>1.010453429486582</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035412315900797</v>
+        <v>1.038699403366097</v>
       </c>
       <c r="J19">
-        <v>1.036010988792777</v>
+        <v>1.005822397860532</v>
       </c>
       <c r="K19">
-        <v>1.042893751910206</v>
+        <v>1.019504384377904</v>
       </c>
       <c r="L19">
-        <v>1.033026651002677</v>
+        <v>1.002136290937345</v>
       </c>
       <c r="M19">
-        <v>1.052849577139843</v>
+        <v>1.024030541172797</v>
       </c>
       <c r="N19">
-        <v>1.015872082272544</v>
+        <v>1.005205419031692</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029480644029449</v>
+        <v>0.9758329061761142</v>
       </c>
       <c r="D20">
-        <v>1.039274631023628</v>
+        <v>1.004174341172138</v>
       </c>
       <c r="E20">
-        <v>1.029341623781462</v>
+        <v>0.986392046990307</v>
       </c>
       <c r="F20">
-        <v>1.049215143660515</v>
+        <v>1.008565382564532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035325691972828</v>
+        <v>1.038097161536927</v>
       </c>
       <c r="J20">
-        <v>1.035720969056014</v>
+        <v>1.00432830053718</v>
       </c>
       <c r="K20">
-        <v>1.0426367713127</v>
+        <v>1.018144184820569</v>
       </c>
       <c r="L20">
-        <v>1.0327385911182</v>
+        <v>1.000678471971919</v>
       </c>
       <c r="M20">
-        <v>1.052543156623736</v>
+        <v>1.022459273754273</v>
       </c>
       <c r="N20">
-        <v>1.0157730215102</v>
+        <v>1.004685531736642</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028134350032169</v>
+        <v>0.96847731294265</v>
       </c>
       <c r="D21">
-        <v>1.038228218228379</v>
+        <v>0.9986063255045916</v>
       </c>
       <c r="E21">
-        <v>1.028192159477586</v>
+        <v>0.9804680220431546</v>
       </c>
       <c r="F21">
-        <v>1.048010177550706</v>
+        <v>1.002294217005224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035042069204834</v>
+        <v>1.036079442077044</v>
       </c>
       <c r="J21">
-        <v>1.03477728788157</v>
+        <v>0.999354775991</v>
       </c>
       <c r="K21">
-        <v>1.041800083499852</v>
+        <v>1.013614149668582</v>
       </c>
       <c r="L21">
-        <v>1.031801599712502</v>
+        <v>0.9958291290050636</v>
       </c>
       <c r="M21">
-        <v>1.051546184598871</v>
+        <v>1.017232254710458</v>
       </c>
       <c r="N21">
-        <v>1.015450444865687</v>
+        <v>1.002954215833317</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027287763051361</v>
+        <v>0.9637136125056709</v>
       </c>
       <c r="D22">
-        <v>1.03757002569821</v>
+        <v>0.9950074752631061</v>
       </c>
       <c r="E22">
-        <v>1.027469712602504</v>
+        <v>0.9766420477707918</v>
       </c>
       <c r="F22">
-        <v>1.047252607647445</v>
+        <v>0.9982432065171476</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034862210236106</v>
+        <v>1.034762777265427</v>
       </c>
       <c r="J22">
-        <v>1.034183340808354</v>
+        <v>0.996133404456383</v>
       </c>
       <c r="K22">
-        <v>1.041273086945352</v>
+        <v>1.010678488103401</v>
       </c>
       <c r="L22">
-        <v>1.031212103217743</v>
+        <v>0.9926908794756506</v>
       </c>
       <c r="M22">
-        <v>1.050918755611266</v>
+        <v>1.013849546349857</v>
       </c>
       <c r="N22">
-        <v>1.01524722805662</v>
+        <v>1.001832353093909</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027736566713448</v>
+        <v>0.9662526913443404</v>
       </c>
       <c r="D23">
-        <v>1.037918971916182</v>
+        <v>0.9969249576621111</v>
       </c>
       <c r="E23">
-        <v>1.027852670334072</v>
+        <v>0.9786802752246992</v>
       </c>
       <c r="F23">
-        <v>1.04765420622723</v>
+        <v>1.000401386881949</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034957702359889</v>
+        <v>1.035465471188719</v>
       </c>
       <c r="J23">
-        <v>1.034498262213479</v>
+        <v>0.9978504175573486</v>
       </c>
       <c r="K23">
-        <v>1.041552546889699</v>
+        <v>1.012243348555369</v>
       </c>
       <c r="L23">
-        <v>1.031524642074757</v>
+        <v>0.9943633319720327</v>
       </c>
       <c r="M23">
-        <v>1.051251424031141</v>
+        <v>1.01565226917416</v>
       </c>
       <c r="N23">
-        <v>1.015354995124267</v>
+        <v>1.002430353904178</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029503212964111</v>
+        <v>0.9759539925680483</v>
       </c>
       <c r="D24">
-        <v>1.03929216971754</v>
+        <v>1.004266108088416</v>
       </c>
       <c r="E24">
-        <v>1.029360899291223</v>
+        <v>0.9864897333013886</v>
       </c>
       <c r="F24">
-        <v>1.049235345812195</v>
+        <v>1.008668777087327</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035330420955942</v>
+        <v>1.038130206795572</v>
       </c>
       <c r="J24">
-        <v>1.035736779602866</v>
+        <v>1.004410161197542</v>
       </c>
       <c r="K24">
-        <v>1.042650782647088</v>
+        <v>1.018218718001807</v>
       </c>
       <c r="L24">
-        <v>1.032754293645137</v>
+        <v>1.000758332390019</v>
       </c>
       <c r="M24">
-        <v>1.052559860987951</v>
+        <v>1.022545350501839</v>
       </c>
       <c r="N24">
-        <v>1.015778422784303</v>
+        <v>1.004714018910852</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031552856904883</v>
+        <v>0.986660573129566</v>
       </c>
       <c r="D25">
-        <v>1.040884527040907</v>
+        <v>1.012392970787834</v>
       </c>
       <c r="E25">
-        <v>1.031112305191769</v>
+        <v>0.9951485653579281</v>
       </c>
       <c r="F25">
-        <v>1.051070369129622</v>
+        <v>1.017830919650728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035756267076748</v>
+        <v>1.041027308899655</v>
       </c>
       <c r="J25">
-        <v>1.03717135371039</v>
+        <v>1.011645355318982</v>
       </c>
       <c r="K25">
-        <v>1.043921162371347</v>
+        <v>1.024801900499109</v>
       </c>
       <c r="L25">
-        <v>1.034179639811785</v>
+        <v>1.007822663363985</v>
       </c>
       <c r="M25">
-        <v>1.054075668824697</v>
+        <v>1.03015859878309</v>
       </c>
       <c r="N25">
-        <v>1.016268051943777</v>
+        <v>1.007230365055254</v>
       </c>
     </row>
   </sheetData>
